--- a/biology/Botanique/Disporum/Disporum.xlsx
+++ b/biology/Botanique/Disporum/Disporum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disporum est un genre de plantes herbacées de la famille des liliacées selon la classification classique de Cronquist (1981)[1], de la famille des colchicacées selon la classification phylogénétique APG III (2009)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disporum est un genre de plantes herbacées de la famille des liliacées selon la classification classique de Cronquist (1981), de la famille des colchicacées selon la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Disporum hookeri (Torr.) Nichols.
